--- a/tabular/Africa/Extra_CosmoAF1b.xlsx
+++ b/tabular/Africa/Extra_CosmoAF1b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathr\Dropbox\GLUE\Whole clades\Completed\Africa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/general/NCBI-RABV-GLUE/tabular/Africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B1E9BB-FB13-40FB-8179-0A034821C3C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009957F2-4724-ED4D-BFC2-3B060F4A274C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BFD3D7BC-CE15-45D0-B2DC-CE5CCFE76C0E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{BFD3D7BC-CE15-45D0-B2DC-CE5CCFE76C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,47 +683,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9FEDFD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1074,36 +1034,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659510E-E04F-4FB5-B14E-2C0859C309F3}">
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AF56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="58" workbookViewId="0">
+      <selection activeCell="R15" sqref="A1:AF56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" customWidth="1"/>
-    <col min="23" max="23" width="33.5703125" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" customWidth="1"/>
-    <col min="25" max="25" width="22" customWidth="1"/>
-    <col min="26" max="26" width="24.7109375" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" customWidth="1"/>
-    <col min="29" max="29" width="19.85546875" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="32" max="32" width="17" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
+    <col min="20" max="20" width="16.5" customWidth="1"/>
+    <col min="21" max="21" width="23.83203125" customWidth="1"/>
+    <col min="22" max="22" width="33.5" customWidth="1"/>
+    <col min="23" max="23" width="26.5" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="24.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" customWidth="1"/>
+    <col min="28" max="28" width="19.83203125" customWidth="1"/>
+    <col min="29" max="29" width="15.33203125" customWidth="1"/>
+    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="31" max="31" width="17" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -1149,59 +1109,59 @@
       <c r="O1" t="s">
         <v>139</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="Q1" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>151</v>
       </c>
+      <c r="AC1" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="AD1" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1247,57 +1207,57 @@
       <c r="O2" t="s">
         <v>7</v>
       </c>
+      <c r="P2" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U2" s="7">
+      <c r="S2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="7">
         <v>1993</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W2" s="7">
+      <c r="U2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="7">
         <v>1993</v>
       </c>
-      <c r="X2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y2" s="7">
+      <c r="W2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" s="7">
         <v>1993</v>
       </c>
+      <c r="Y2" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z2" s="7" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC2" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF2" s="9">
+      <c r="AE2" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1343,57 +1303,57 @@
       <c r="O3" t="s">
         <v>9</v>
       </c>
+      <c r="P3" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="Q3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="11">
+      <c r="S3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T3" s="11">
         <v>1999</v>
       </c>
-      <c r="V3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W3" s="11">
+      <c r="U3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V3" s="11">
         <v>1999</v>
       </c>
-      <c r="X3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y3" s="11">
+      <c r="W3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X3" s="11">
         <v>1999</v>
       </c>
+      <c r="Y3" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z3" s="11" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC3" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD3" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE3" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF3" s="9">
+      <c r="AE3" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1439,57 +1399,57 @@
       <c r="O4" t="s">
         <v>11</v>
       </c>
+      <c r="P4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U4" s="7">
+      <c r="S4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="7">
         <v>1999</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W4" s="7">
+      <c r="U4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V4" s="7">
         <v>1999</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y4" s="7">
+      <c r="W4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4" s="7">
         <v>1999</v>
       </c>
+      <c r="Y4" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z4" s="7" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC4" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF4" s="9">
+      <c r="AE4" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1535,57 +1495,57 @@
       <c r="O5" t="s">
         <v>13</v>
       </c>
+      <c r="P5" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="Q5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="T5" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="S5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T5" s="11">
         <v>2000</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W5" s="11">
+      <c r="U5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V5" s="11">
         <v>2000</v>
       </c>
-      <c r="X5" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y5" s="11">
+      <c r="W5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X5" s="11">
         <v>2000</v>
       </c>
+      <c r="Y5" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z5" s="11" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC5" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE5" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF5" s="9">
+      <c r="AE5" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AF5" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1631,57 +1591,57 @@
       <c r="O6" t="s">
         <v>15</v>
       </c>
+      <c r="P6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U6" s="7">
+      <c r="S6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T6" s="7">
         <v>2004</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W6" s="7">
+      <c r="U6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V6" s="7">
         <v>2004</v>
       </c>
-      <c r="X6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y6" s="7">
+      <c r="W6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X6" s="7">
         <v>2004</v>
       </c>
+      <c r="Y6" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z6" s="7" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC6" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF6" s="9">
+      <c r="AE6" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AF6" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1727,57 +1687,57 @@
       <c r="O7" t="s">
         <v>17</v>
       </c>
+      <c r="P7" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="Q7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R7" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U7" s="11">
+      <c r="S7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" s="11">
         <v>2005</v>
       </c>
-      <c r="V7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W7" s="11">
+      <c r="U7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V7" s="11">
         <v>2005</v>
       </c>
-      <c r="X7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y7" s="11">
+      <c r="W7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X7" s="11">
         <v>2005</v>
       </c>
+      <c r="Y7" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z7" s="11" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC7" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD7" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE7" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF7" s="9">
+      <c r="AE7" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AF7" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1823,57 +1783,57 @@
       <c r="O8" t="s">
         <v>19</v>
       </c>
+      <c r="P8" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U8" s="7">
+      <c r="S8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T8" s="7">
         <v>2005</v>
       </c>
-      <c r="V8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W8" s="7">
+      <c r="U8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V8" s="7">
         <v>2005</v>
       </c>
-      <c r="X8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y8" s="7">
+      <c r="W8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X8" s="7">
         <v>2005</v>
       </c>
+      <c r="Y8" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z8" s="7" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC8" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF8" s="9">
+      <c r="AE8" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AF8" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1919,57 +1879,57 @@
       <c r="O9" t="s">
         <v>21</v>
       </c>
+      <c r="P9" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="Q9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="T9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U9" s="11">
+      <c r="S9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T9" s="11">
         <v>2005</v>
       </c>
-      <c r="V9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W9" s="11">
+      <c r="U9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V9" s="11">
         <v>2005</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y9" s="11">
+      <c r="W9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X9" s="11">
         <v>2005</v>
       </c>
+      <c r="Y9" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z9" s="11" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC9" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE9" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF9" s="9">
+      <c r="AE9" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AF9" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2015,57 +1975,57 @@
       <c r="O10" t="s">
         <v>23</v>
       </c>
+      <c r="P10" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U10" s="7">
+      <c r="S10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T10" s="7">
         <v>2005</v>
       </c>
-      <c r="V10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W10" s="7">
+      <c r="U10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V10" s="7">
         <v>2005</v>
       </c>
-      <c r="X10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y10" s="7">
+      <c r="W10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X10" s="7">
         <v>2005</v>
       </c>
+      <c r="Y10" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z10" s="7" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC10" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF10" s="9">
+      <c r="AE10" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG10" s="10" t="s">
+      <c r="AF10" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2111,57 +2071,57 @@
       <c r="O11" t="s">
         <v>26</v>
       </c>
+      <c r="P11" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="Q11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U11" s="11">
+      <c r="S11" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T11" s="11">
         <v>2012</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W11" s="11">
+      <c r="U11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" s="11">
         <v>2012</v>
       </c>
-      <c r="X11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y11" s="11">
+      <c r="W11" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X11" s="11">
         <v>2012</v>
       </c>
+      <c r="Y11" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z11" s="11" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="AA11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC11" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD11" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF11" s="9">
+      <c r="AE11" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2207,57 +2167,57 @@
       <c r="O12" t="s">
         <v>28</v>
       </c>
+      <c r="P12" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S12" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="T12" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U12" s="7">
+      <c r="S12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T12" s="7">
         <v>2012</v>
       </c>
-      <c r="V12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W12" s="7">
+      <c r="U12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" s="7">
         <v>2012</v>
       </c>
-      <c r="X12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y12" s="7">
+      <c r="W12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X12" s="7">
         <v>2012</v>
       </c>
+      <c r="Y12" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z12" s="7" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC12" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD12" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF12" s="9">
+      <c r="AE12" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG12" s="10" t="s">
+      <c r="AF12" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2303,57 +2263,57 @@
       <c r="O13" t="s">
         <v>31</v>
       </c>
+      <c r="P13" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="Q13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U13" s="11">
+      <c r="S13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" s="11">
         <v>2012</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W13" s="11">
+      <c r="U13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V13" s="11">
         <v>2012</v>
       </c>
-      <c r="X13" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y13" s="11">
+      <c r="W13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X13" s="11">
         <v>2012</v>
       </c>
+      <c r="Y13" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z13" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC13" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD13" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF13" s="9">
+      <c r="AE13" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AF13" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2399,57 +2359,57 @@
       <c r="O14" t="s">
         <v>33</v>
       </c>
+      <c r="P14" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="Q14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="T14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U14" s="7">
+      <c r="S14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T14" s="7">
         <v>2013</v>
       </c>
-      <c r="V14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W14" s="7">
+      <c r="U14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V14" s="7">
         <v>2013</v>
       </c>
-      <c r="X14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y14" s="7">
+      <c r="W14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" s="7">
         <v>2013</v>
       </c>
+      <c r="Y14" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z14" s="7" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC14" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF14" s="9">
+      <c r="AE14" s="9">
         <v>28397511</v>
       </c>
-      <c r="AG14" s="10" t="s">
+      <c r="AF14" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2495,57 +2455,57 @@
       <c r="O15" t="s">
         <v>37</v>
       </c>
+      <c r="P15" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S15" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U15" s="11">
+      <c r="S15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T15" s="11">
         <v>2012</v>
       </c>
-      <c r="V15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W15" s="11">
+      <c r="U15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V15" s="11">
         <v>2012</v>
       </c>
-      <c r="X15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y15" s="11">
+      <c r="W15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" s="11">
         <v>2012</v>
       </c>
+      <c r="Y15" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z15" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC15" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD15" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF15" s="13">
+      <c r="AE15" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG15" s="12" t="s">
+      <c r="AF15" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2591,57 +2551,57 @@
       <c r="O16" t="s">
         <v>40</v>
       </c>
+      <c r="P16" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U16" s="7">
+      <c r="S16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T16" s="7">
         <v>2012</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W16" s="7">
+      <c r="U16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V16" s="7">
         <v>2012</v>
       </c>
-      <c r="X16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y16" s="7">
+      <c r="W16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X16" s="7">
         <v>2012</v>
       </c>
+      <c r="Y16" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z16" s="7" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC16" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF16" s="13">
+      <c r="AE16" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG16" s="10" t="s">
+      <c r="AF16" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2687,57 +2647,57 @@
       <c r="O17" t="s">
         <v>43</v>
       </c>
+      <c r="P17" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q17" s="11" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U17" s="11">
+        <v>156</v>
+      </c>
+      <c r="T17" s="11">
         <v>2012</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W17" s="11">
+      <c r="U17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V17" s="11">
         <v>2012</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y17" s="11">
+      <c r="W17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X17" s="11">
         <v>2012</v>
       </c>
+      <c r="Y17" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z17" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC17" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD17" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF17" s="13">
+      <c r="AE17" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG17" s="12" t="s">
+      <c r="AF17" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2783,57 +2743,57 @@
       <c r="O18" t="s">
         <v>45</v>
       </c>
+      <c r="P18" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U18" s="7">
+      <c r="S18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T18" s="7">
         <v>2012</v>
       </c>
-      <c r="V18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W18" s="7">
+      <c r="U18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V18" s="7">
         <v>2012</v>
       </c>
-      <c r="X18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y18" s="7">
+      <c r="W18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X18" s="7">
         <v>2012</v>
       </c>
+      <c r="Y18" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z18" s="7" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC18" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD18" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE18" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF18" s="13">
+      <c r="AE18" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AF18" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2879,57 +2839,57 @@
       <c r="O19" t="s">
         <v>47</v>
       </c>
+      <c r="P19" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U19" s="11">
+      <c r="S19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" s="11">
         <v>2012</v>
       </c>
-      <c r="V19" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W19" s="11">
+      <c r="U19" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V19" s="11">
         <v>2012</v>
       </c>
-      <c r="X19" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y19" s="11">
+      <c r="W19" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X19" s="11">
         <v>2012</v>
       </c>
+      <c r="Y19" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z19" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC19" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD19" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE19" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF19" s="13">
+      <c r="AE19" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG19" s="12" t="s">
+      <c r="AF19" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2975,57 +2935,57 @@
       <c r="O20" t="s">
         <v>49</v>
       </c>
+      <c r="P20" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U20" s="7">
+        <v>156</v>
+      </c>
+      <c r="T20" s="7">
         <v>2013</v>
       </c>
-      <c r="V20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W20" s="7">
+      <c r="U20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V20" s="7">
         <v>2013</v>
       </c>
-      <c r="X20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y20" s="7">
+      <c r="W20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X20" s="7">
         <v>2013</v>
       </c>
+      <c r="Y20" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="Z20" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC20" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD20" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF20" s="13">
+      <c r="AE20" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG20" s="10" t="s">
+      <c r="AF20" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3071,57 +3031,57 @@
       <c r="O21" s="2">
         <v>41456</v>
       </c>
+      <c r="P21" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q21" s="11" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U21" s="11">
+        <v>156</v>
+      </c>
+      <c r="T21" s="11">
         <v>2013</v>
       </c>
-      <c r="V21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W21" s="11">
+      <c r="U21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V21" s="11">
         <v>2013</v>
       </c>
-      <c r="X21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y21" s="11">
+      <c r="W21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X21" s="11">
         <v>2013</v>
       </c>
+      <c r="Y21" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z21" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC21" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD21" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE21" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF21" s="13">
+      <c r="AE21" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AF21" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3167,57 +3127,57 @@
       <c r="O22" t="s">
         <v>52</v>
       </c>
+      <c r="P22" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S22" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R22" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="T22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U22" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W22" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>2014</v>
+      <c r="S22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T22" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V22" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X22" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC22" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF22" s="13">
+      <c r="AE22" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3263,57 +3223,57 @@
       <c r="O23" t="s">
         <v>54</v>
       </c>
+      <c r="P23" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W23" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>2014</v>
+      <c r="S23" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V23" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X23" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC23" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD23" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE23" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF23" s="13">
+      <c r="AE23" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG23" s="12" t="s">
+      <c r="AF23" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -3359,57 +3319,57 @@
       <c r="O24" s="2">
         <v>41852</v>
       </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q24" s="7" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U24" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W24" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T24" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V24" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X24" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC24" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF24" s="13">
+      <c r="AE24" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG24" s="10" t="s">
+      <c r="AF24" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3455,57 +3415,57 @@
       <c r="O25" t="s">
         <v>57</v>
       </c>
+      <c r="P25" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S25" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R25" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U25" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W25" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>2014</v>
+      <c r="S25" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T25" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V25" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X25" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC25" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD25" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE25" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF25" s="13">
+      <c r="AE25" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG25" s="12" t="s">
+      <c r="AF25" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3551,57 +3511,57 @@
       <c r="O26" t="s">
         <v>59</v>
       </c>
+      <c r="P26" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S26" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U26" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W26" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>2014</v>
+      <c r="S26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T26" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V26" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X26" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC26" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF26" s="13">
+      <c r="AE26" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG26" s="10" t="s">
+      <c r="AF26" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -3647,57 +3607,57 @@
       <c r="O27" t="s">
         <v>61</v>
       </c>
+      <c r="P27" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S27" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R27" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T27" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U27" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W27" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>2014</v>
+      <c r="S27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T27" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V27" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X27" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB27" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC27" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD27" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE27" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF27" s="13">
+      <c r="AE27" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG27" s="12" t="s">
+      <c r="AF27" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -3743,57 +3703,57 @@
       <c r="O28" t="s">
         <v>63</v>
       </c>
+      <c r="P28" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U28" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W28" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T28" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V28" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X28" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC28" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF28" s="13">
+      <c r="AE28" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG28" s="10" t="s">
+      <c r="AF28" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -3839,57 +3799,57 @@
       <c r="O29" t="s">
         <v>65</v>
       </c>
+      <c r="P29" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R29" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U29" s="11">
-        <v>2015</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W29" s="11">
-        <v>2015</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y29" s="11">
-        <v>2015</v>
+      <c r="S29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T29" s="11">
+        <v>2015</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V29" s="11">
+        <v>2015</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X29" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC29" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD29" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE29" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF29" s="13">
+      <c r="AE29" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG29" s="12" t="s">
+      <c r="AF29" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3935,57 +3895,57 @@
       <c r="O30" t="s">
         <v>67</v>
       </c>
+      <c r="P30" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R30" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T30" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U30" s="7">
-        <v>2015</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W30" s="7">
-        <v>2015</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>2015</v>
+      <c r="S30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T30" s="7">
+        <v>2015</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V30" s="7">
+        <v>2015</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X30" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB30" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC30" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE30" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF30" s="13">
+      <c r="AE30" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG30" s="10" t="s">
+      <c r="AF30" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4031,57 +3991,57 @@
       <c r="O31" t="s">
         <v>69</v>
       </c>
+      <c r="P31" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R31" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T31" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U31" s="11">
-        <v>2015</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W31" s="11">
-        <v>2015</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y31" s="11">
-        <v>2015</v>
+      <c r="S31" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T31" s="11">
+        <v>2015</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V31" s="11">
+        <v>2015</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X31" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC31" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE31" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF31" s="13">
+      <c r="AE31" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG31" s="12" t="s">
+      <c r="AF31" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4127,57 +4087,57 @@
       <c r="O32" t="s">
         <v>72</v>
       </c>
+      <c r="P32" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="Q32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="S32" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R32" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T32" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U32" s="7">
-        <v>2015</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W32" s="7">
-        <v>2015</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>2015</v>
+      <c r="S32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="T32" s="7">
+        <v>2015</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V32" s="7">
+        <v>2015</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X32" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AA32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB32" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC32" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE32" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF32" s="13">
+      <c r="AE32" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG32" s="10" t="s">
+      <c r="AF32" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -4223,57 +4183,57 @@
       <c r="O33" t="s">
         <v>74</v>
       </c>
+      <c r="P33" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="Q33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="S33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R33" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T33" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="U33" s="11">
+      <c r="S33" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="T33" s="11">
         <v>2016</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W33" s="11">
+      <c r="U33" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V33" s="11">
         <v>2016</v>
       </c>
-      <c r="X33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y33" s="11">
+      <c r="W33" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X33" s="11">
         <v>2016</v>
       </c>
+      <c r="Y33" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="Z33" s="11" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB33" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC33" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD33" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE33" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF33" s="13">
+      <c r="AE33" s="13">
         <v>30270887</v>
       </c>
-      <c r="AG33" s="12" t="s">
+      <c r="AF33" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -4319,57 +4279,57 @@
       <c r="O34" t="s">
         <v>79</v>
       </c>
+      <c r="P34" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q34" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U34" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W34" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T34" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V34" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X34" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC34" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD34" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE34" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF34" s="13">
+      <c r="AE34" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG34" s="10" t="s">
+      <c r="AF34" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -4415,57 +4375,57 @@
       <c r="O35" t="s">
         <v>82</v>
       </c>
+      <c r="P35" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q35" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U35" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W35" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y35" s="11">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T35" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V35" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X35" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB35" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC35" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD35" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE35" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF35" s="13">
+      <c r="AE35" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG35" s="12" t="s">
+      <c r="AF35" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -4511,57 +4471,57 @@
       <c r="O36" t="s">
         <v>84</v>
       </c>
+      <c r="P36" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q36" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U36" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W36" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T36" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V36" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X36" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="AA36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB36" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC36" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD36" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE36" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF36" s="13">
+      <c r="AE36" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG36" s="10" t="s">
+      <c r="AF36" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -4607,57 +4567,57 @@
       <c r="O37" t="s">
         <v>86</v>
       </c>
+      <c r="P37" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q37" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U37" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V37" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W37" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T37" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V37" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X37" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA37" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB37" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC37" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD37" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE37" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF37" s="13">
+      <c r="AE37" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG37" s="12" t="s">
+      <c r="AF37" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -4703,57 +4663,57 @@
       <c r="O38" t="s">
         <v>88</v>
       </c>
+      <c r="P38" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q38" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U38" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W38" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y38" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T38" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V38" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X38" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z38" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB38" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC38" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE38" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF38" s="13">
+      <c r="AE38" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG38" s="10" t="s">
+      <c r="AF38" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -4799,57 +4759,57 @@
       <c r="O39" t="s">
         <v>90</v>
       </c>
+      <c r="P39" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q39" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U39" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W39" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T39" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V39" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X39" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB39" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC39" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD39" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE39" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF39" s="13">
+      <c r="AE39" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG39" s="12" t="s">
+      <c r="AF39" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -4895,57 +4855,57 @@
       <c r="O40" t="s">
         <v>92</v>
       </c>
+      <c r="P40" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q40" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T40" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U40" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V40" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W40" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T40" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V40" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X40" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z40" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB40" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC40" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF40" s="13">
+      <c r="AE40" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG40" s="10" t="s">
+      <c r="AF40" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -4991,57 +4951,57 @@
       <c r="O41" t="s">
         <v>94</v>
       </c>
+      <c r="P41" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q41" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U41" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W41" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y41" s="11">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T41" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V41" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X41" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB41" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC41" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD41" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE41" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF41" s="13">
+      <c r="AE41" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG41" s="12" t="s">
+      <c r="AF41" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -5087,57 +5047,57 @@
       <c r="O42" t="s">
         <v>96</v>
       </c>
+      <c r="P42" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q42" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T42" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U42" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W42" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X42" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y42" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T42" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V42" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X42" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB42" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC42" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE42" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF42" s="13">
+      <c r="AE42" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG42" s="10" t="s">
+      <c r="AF42" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -5183,57 +5143,57 @@
       <c r="O43" t="s">
         <v>98</v>
       </c>
+      <c r="P43" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q43" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U43" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W43" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y43" s="11">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T43" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V43" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X43" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB43" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC43" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD43" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE43" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF43" s="13">
+      <c r="AE43" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG43" s="12" t="s">
+      <c r="AF43" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -5279,57 +5239,57 @@
       <c r="O44" t="s">
         <v>100</v>
       </c>
+      <c r="P44" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q44" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U44" s="7">
-        <v>2014</v>
-      </c>
-      <c r="V44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W44" s="7">
-        <v>2014</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y44" s="7">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T44" s="7">
+        <v>2014</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V44" s="7">
+        <v>2014</v>
+      </c>
+      <c r="W44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X44" s="7">
+        <v>2014</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB44" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC44" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD44" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE44" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF44" s="13">
+      <c r="AE44" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG44" s="10" t="s">
+      <c r="AF44" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -5375,57 +5335,57 @@
       <c r="O45" t="s">
         <v>102</v>
       </c>
+      <c r="P45" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q45" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U45" s="11">
-        <v>2014</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W45" s="11">
-        <v>2014</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y45" s="11">
-        <v>2014</v>
+        <v>156</v>
+      </c>
+      <c r="T45" s="11">
+        <v>2014</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V45" s="11">
+        <v>2014</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X45" s="11">
+        <v>2014</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA45" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB45" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC45" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD45" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE45" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF45" s="13">
+      <c r="AE45" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG45" s="12" t="s">
+      <c r="AF45" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -5471,57 +5431,57 @@
       <c r="O46" t="s">
         <v>104</v>
       </c>
+      <c r="P46" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q46" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U46" s="7">
-        <v>2015</v>
-      </c>
-      <c r="V46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W46" s="7">
-        <v>2015</v>
-      </c>
-      <c r="X46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y46" s="7">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T46" s="7">
+        <v>2015</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V46" s="7">
+        <v>2015</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X46" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC46" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD46" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE46" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF46" s="13">
+      <c r="AE46" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG46" s="10" t="s">
+      <c r="AF46" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -5567,57 +5527,57 @@
       <c r="O47" t="s">
         <v>106</v>
       </c>
+      <c r="P47" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q47" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U47" s="11">
-        <v>2015</v>
-      </c>
-      <c r="V47" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W47" s="11">
-        <v>2015</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y47" s="11">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T47" s="11">
+        <v>2015</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V47" s="11">
+        <v>2015</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X47" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA47" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB47" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC47" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD47" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE47" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF47" s="13">
+      <c r="AE47" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG47" s="12" t="s">
+      <c r="AF47" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -5663,57 +5623,57 @@
       <c r="O48" t="s">
         <v>108</v>
       </c>
+      <c r="P48" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q48" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T48" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U48" s="7">
-        <v>2015</v>
-      </c>
-      <c r="V48" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W48" s="7">
-        <v>2015</v>
-      </c>
-      <c r="X48" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y48" s="7">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T48" s="7">
+        <v>2015</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V48" s="7">
+        <v>2015</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X48" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA48" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB48" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC48" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD48" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE48" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF48" s="13">
+      <c r="AE48" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG48" s="10" t="s">
+      <c r="AF48" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -5759,57 +5719,57 @@
       <c r="O49" t="s">
         <v>110</v>
       </c>
+      <c r="P49" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q49" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U49" s="11">
-        <v>2015</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W49" s="11">
-        <v>2015</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y49" s="11">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T49" s="11">
+        <v>2015</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V49" s="11">
+        <v>2015</v>
+      </c>
+      <c r="W49" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X49" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="AA49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB49" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC49" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD49" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE49" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF49" s="13">
+      <c r="AE49" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG49" s="12" t="s">
+      <c r="AF49" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -5855,57 +5815,57 @@
       <c r="O50" t="s">
         <v>112</v>
       </c>
+      <c r="P50" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q50" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U50" s="7">
-        <v>2015</v>
-      </c>
-      <c r="V50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W50" s="7">
-        <v>2015</v>
-      </c>
-      <c r="X50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y50" s="7">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T50" s="7">
+        <v>2015</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V50" s="7">
+        <v>2015</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X50" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA50" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB50" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC50" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD50" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE50" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF50" s="13">
+      <c r="AE50" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG50" s="10" t="s">
+      <c r="AF50" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -5951,57 +5911,57 @@
       <c r="O51" t="s">
         <v>114</v>
       </c>
+      <c r="P51" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q51" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U51" s="11">
-        <v>2015</v>
-      </c>
-      <c r="V51" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W51" s="11">
-        <v>2015</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y51" s="11">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T51" s="11">
+        <v>2015</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V51" s="11">
+        <v>2015</v>
+      </c>
+      <c r="W51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X51" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z51" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA51" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB51" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC51" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD51" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE51" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF51" s="13">
+      <c r="AE51" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG51" s="12" t="s">
+      <c r="AF51" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -6047,57 +6007,57 @@
       <c r="O52" t="s">
         <v>116</v>
       </c>
+      <c r="P52" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q52" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="T52" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U52" s="7">
-        <v>2015</v>
-      </c>
-      <c r="V52" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W52" s="7">
-        <v>2015</v>
-      </c>
-      <c r="X52" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y52" s="7">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T52" s="7">
+        <v>2015</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V52" s="7">
+        <v>2015</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X52" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA52" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB52" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC52" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD52" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE52" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF52" s="13">
+      <c r="AE52" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG52" s="10" t="s">
+      <c r="AF52" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -6143,57 +6103,57 @@
       <c r="O53" t="s">
         <v>118</v>
       </c>
+      <c r="P53" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q53" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U53" s="11">
-        <v>2015</v>
-      </c>
-      <c r="V53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W53" s="11">
-        <v>2015</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y53" s="11">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T53" s="11">
+        <v>2015</v>
+      </c>
+      <c r="U53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V53" s="11">
+        <v>2015</v>
+      </c>
+      <c r="W53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X53" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Y53" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z53" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA53" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB53" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC53" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD53" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE53" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF53" s="13">
+      <c r="AE53" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG53" s="12" t="s">
+      <c r="AF53" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -6239,57 +6199,57 @@
       <c r="O54" t="s">
         <v>120</v>
       </c>
+      <c r="P54" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Q54" s="7" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="U54" s="7">
-        <v>2015</v>
-      </c>
-      <c r="V54" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="W54" s="7">
-        <v>2015</v>
-      </c>
-      <c r="X54" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y54" s="7">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T54" s="7">
+        <v>2015</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V54" s="7">
+        <v>2015</v>
+      </c>
+      <c r="W54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="X54" s="7">
+        <v>2015</v>
+      </c>
+      <c r="Y54" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="Z54" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA54" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB54" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC54" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="AD54" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AE54" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF54" s="13">
+      <c r="AE54" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG54" s="10" t="s">
+      <c r="AF54" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -6335,57 +6295,57 @@
       <c r="O55" t="s">
         <v>122</v>
       </c>
+      <c r="P55" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="Q55" s="11" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="U55" s="11">
-        <v>2015</v>
-      </c>
-      <c r="V55" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="W55" s="11">
-        <v>2015</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y55" s="11">
-        <v>2015</v>
+        <v>156</v>
+      </c>
+      <c r="T55" s="11">
+        <v>2015</v>
+      </c>
+      <c r="U55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="V55" s="11">
+        <v>2015</v>
+      </c>
+      <c r="W55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X55" s="11">
+        <v>2015</v>
+      </c>
+      <c r="Y55" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="Z55" s="11" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="AA55" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB55" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC55" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="AD55" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="AE55" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF55" s="13">
+      <c r="AE55" s="13">
         <v>30629634</v>
       </c>
-      <c r="AG55" s="12" t="s">
+      <c r="AF55" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -6431,66 +6391,66 @@
       <c r="O56" t="s">
         <v>124</v>
       </c>
+      <c r="P56" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="Q56" s="14" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="R56" s="14" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="S56" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T56" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="U56" s="14">
+        <v>156</v>
+      </c>
+      <c r="T56" s="14">
         <v>2016</v>
       </c>
-      <c r="V56" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="W56" s="14">
+      <c r="U56" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="V56" s="14">
         <v>2016</v>
       </c>
-      <c r="X56" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y56" s="14">
+      <c r="W56" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X56" s="14">
         <v>2016</v>
       </c>
+      <c r="Y56" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="Z56" s="14" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="AA56" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB56" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC56" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="AD56" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="AE56" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF56" s="15">
+      <c r="AE56" s="15">
         <v>30629634</v>
       </c>
-      <c r="AG56" s="4" t="s">
+      <c r="AF56" s="4" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R1 V1 X1 Z1 T1 AB1">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="Q1 U1 W1 Y1 S1 AA1">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"filled in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:AG14 Q57:AG1048576 Q15:AE56 AG15:AG56">
+  <conditionalFormatting sqref="P1:AF14 P57:AF1048576 P15:AD56 AF15:AF56">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"updated"</formula>
     </cfRule>
